--- a/biology/Botanique/Centre_du_riz_pour_l'Afrique/Centre_du_riz_pour_l'Afrique.xlsx
+++ b/biology/Botanique/Centre_du_riz_pour_l'Afrique/Centre_du_riz_pour_l'Afrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_du_riz_pour_l%27Afrique</t>
+          <t>Centre_du_riz_pour_l'Afrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre du riz pour l'Afrique (AfricaRice) est l'un des 15 centres de recherche agricole membres du Groupe consultatif pour la recherche agricole internationale qui vise à améliorer la production et la valeur du riz en Afrique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_du_riz_pour_l%27Afrique</t>
+          <t>Centre_du_riz_pour_l'Afrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre a été créé en 1971 par 11 États africains. Jusqu'en 2003, le centre était connu comme l’Association pour le développement de la riziculture en Afrique de l’Ouest (ADRAO). Il a été mis avec l’aide du Programme des Nations unies pour le développement (PNUD), de l’Organisation des Nations unies pour l’alimentation et l’agriculture (FAO) et de la Commission économique pour l’Afrique (CEA).
 Reconnaissant l'importance stratégique du riz pour l'Afrique et l'expansion géographique effective du Centre, son Conseil des ministres a pris la décision historique en 2009 de changer son nom en : « Centre du riz pour l'Afrique (AfricaRice) ».
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_du_riz_pour_l%27Afrique</t>
+          <t>Centre_du_riz_pour_l'Afrique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fournir des innovations basées sur le riz et des systèmes agroalimentaires transformés basés sur le riz qui contribuent à la transformation des systèmes alimentaires, fonciers et hydriques face au changement climatique.
 Un grand avancement fut réalisé avec la création de NERICA (New Rice for Africa), qui est un croisement de variétés du riz africain (Oryza glaberrima) et de variétés du riz asiatique (Oryza sativa). Pour son travail de développement du NERICA le chercheur et créateur principal Monty Jones a reçu le prestigieux Prix mondial de l'alimentation en 2004.
